--- a/docs/vision_global_trimestrales.xlsx
+++ b/docs/vision_global_trimestrales.xlsx
@@ -20,14 +20,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="34">
   <si>
     <t xml:space="preserve">Categoria</t>
   </si>
   <si>
-    <t xml:space="preserve">Cantabria - 1T-19</t>
-  </si>
-  <si>
     <t xml:space="preserve">Cantabria - 2T-19</t>
   </si>
   <si>
@@ -40,12 +37,12 @@
     <t xml:space="preserve">Cantabria - 1T-20</t>
   </si>
   <si>
+    <t xml:space="preserve">Cantabria – 2T-20</t>
+  </si>
+  <si>
     <t xml:space="preserve"> - Indicadores</t>
   </si>
   <si>
-    <t xml:space="preserve">España - 1T-19</t>
-  </si>
-  <si>
     <t xml:space="preserve">España - 2T-19</t>
   </si>
   <si>
@@ -58,6 +55,9 @@
     <t xml:space="preserve">España - 1T-20</t>
   </si>
   <si>
+    <t xml:space="preserve">España – 2T-20</t>
+  </si>
+  <si>
     <t xml:space="preserve">Economía</t>
   </si>
   <si>
@@ -70,7 +70,37 @@
     <t xml:space="preserve">Empresas y establecimientos</t>
   </si>
   <si>
+    <t xml:space="preserve">-1.691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.548</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-3.085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-27.67</t>
+  </si>
+  <si>
     <t xml:space="preserve">Índice de confianza empresarial</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.919</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-2.091</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-28.141</t>
   </si>
   <si>
     <t xml:space="preserve">Mercado de Trabajo</t>
@@ -98,14 +128,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
   <fonts count="4">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -165,8 +197,16 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -190,15 +230,15 @@
   <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
+      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5:F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="25.47"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="2" style="0" width="15.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="2" style="0" width="15.34"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="33.24"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="8" style="0" width="13.8"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="8" style="0" width="13.81"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="13" style="0" width="11.52"/>
   </cols>
   <sheetData>
@@ -244,304 +284,94 @@
       <c r="A2" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F2" s="0" t="n">
-        <v>1</v>
-      </c>
       <c r="G2" s="0" t="s">
         <v>13</v>
-      </c>
-      <c r="H2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="I2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="L2" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E3" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F3" s="0" t="n">
-        <v>1</v>
-      </c>
       <c r="G3" s="0" t="s">
         <v>14</v>
-      </c>
-      <c r="H3" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J3" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K3" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="L3" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C4" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E4" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F4" s="0" t="n">
-        <v>1</v>
+      <c r="B4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J4" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K4" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="L4" s="0" t="n">
-        <v>1</v>
+        <v>21</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C5" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D5" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E5" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F5" s="0" t="n">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="H5" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J5" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K5" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="L5" s="0" t="n">
-        <v>1</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C6" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D6" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E6" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F6" s="0" t="n">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="H6" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J6" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K6" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="L6" s="0" t="n">
-        <v>1</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C7" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D7" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E7" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F7" s="0" t="n">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="H7" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J7" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K7" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="L7" s="0" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C8" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D8" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E8" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F8" s="0" t="n">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="H8" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J8" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K8" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="L8" s="0" t="n">
-        <v>1</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C9" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D9" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E9" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F9" s="0" t="n">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="H9" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J9" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K9" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="L9" s="0" t="n">
-        <v>1</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
